--- a/Guitar Shack Reorder Notification.xlsx
+++ b/Guitar Shack Reorder Notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhartog2/Desktop/Work/CodeCraft1/Guitar Shack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8925C3-D002-E346-B93C-97E1E1D02E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831B4A02-556C-F147-AE97-1877C1DD624C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30500" yWindow="19900" windowWidth="30240" windowHeight="18600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
